--- a/Depth_training_results.xlsx
+++ b/Depth_training_results.xlsx
@@ -200,7 +200,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA64D79"/>
         <bgColor rgb="FFA64D79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -361,14 +367,21 @@
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1691,7 @@
       <c r="D24" s="8">
         <v>3.0E-5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="18">
         <v>0.9</v>
       </c>
       <c r="F24" s="6">
@@ -1690,34 +1703,34 @@
       <c r="H24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="19">
         <v>0.280908455451329</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="19">
         <v>0.270953059196472</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="19">
         <v>0.665479286999592</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="19">
         <v>0.997227308980598</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="19">
         <v>0.997799584762183</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="19">
         <v>0.166968176401821</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="19">
         <v>0.227429257386209</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="19">
         <v>0.0922367487294733</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="19">
         <v>0.228226486952153</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="19">
         <v>0.0619916564604134</v>
       </c>
       <c r="T24" s="6" t="s">
@@ -1740,7 +1753,7 @@
       <c r="D25" s="8">
         <v>4.0E-5</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="20">
         <v>0.9</v>
       </c>
       <c r="F25" s="6">
@@ -1752,34 +1765,34 @@
       <c r="H25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="21">
         <v>0.193714895596106</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="21">
         <v>0.185809612274169</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="21">
         <v>0.868373183902276</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="21">
         <v>0.997185359031461</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="21">
         <v>0.997756949623906</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="21">
         <v>0.140905379169286</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="21">
         <v>0.19608525973134</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="21">
         <v>0.0669265999963138</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="21">
         <v>0.20116983847201</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="21">
         <v>0.0548313782428948</v>
       </c>
       <c r="T25" s="6" t="s">
@@ -1790,7 +1803,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="6">
@@ -1926,7 +1939,7 @@
       <c r="D28" s="8">
         <v>3.0E-5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="18">
         <v>0.92</v>
       </c>
       <c r="F28" s="6">
@@ -1938,12 +1951,20 @@
       <c r="H28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="19">
         <v>0.271379893024762</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="19">
         <v>0.266556024551391</v>
       </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
@@ -1958,7 +1979,7 @@
       <c r="D29" s="8">
         <v>4.0E-5</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="24">
         <v>0.94</v>
       </c>
       <c r="F29" s="6">
@@ -1970,20 +1991,20 @@
       <c r="H29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="20">
         <v>0.190350838005542</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="20">
         <v>0.183387130498886</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
@@ -1998,7 +2019,7 @@
       <c r="D30" s="8">
         <v>5.0E-5</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="26">
         <v>0.96</v>
       </c>
       <c r="F30" s="6">

--- a/Depth_training_results.xlsx
+++ b/Depth_training_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>values to be changed</t>
   </si>
@@ -124,31 +124,49 @@
     <t>https://drive.google.com/file/d/1-AnCBgstekXTURHyYvI4_Ra69jWfrEBS/view?usp=sharing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/19-UlcSb1j6Vge-thTLth41F0GLBiOe0x/view?usp=sharing</t>
+  </si>
+  <si>
     <t>wagih17kamel</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1SkH8lvYpBprOhDOAh7SJdlvYRjpyfMjt/view?usp=sharing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1wTe9y7ZheBsvzXqzRYvH-X5mgetifklE/view?usp=sharing</t>
+  </si>
+  <si>
     <t>omarwagih36987</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1FyHFCRFsdTzxPShyxaV6xP17xRoXe3wz/view?usp=sharing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1l5uL7T7EzLXQDBeo_GrxbueElEk79QQY/view?usp=sharing</t>
+  </si>
+  <si>
     <t>caloriescalulator</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-4zajGRszS74tzAdfYmHCrIRJx0PSFLt/view?usp=sharing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1bOlCKwL-2MOspAkB1Yq11RKfudfWEsbu/view?usp=sharing</t>
+  </si>
+  <si>
     <t>ahmed.wagih.2400</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1KUIStqMUNFySMVRQnXv6FEqaxBsNeDnQ/view?usp=sharing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1q6ePBLZXDwoqJPL_qYLA4G20U9XZhBYk/view?usp=sharing</t>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/12Th7lhP0W1gTmGzGqU0XKoTRPgO9qAlB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rsZ5zdjkXT5rPuRdaKNhUYsyCDeyq84d/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -310,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,7 +377,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -377,12 +395,18 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,6 +1701,9 @@
       <c r="U23" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="V23" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
@@ -1734,10 +1761,13 @@
         <v>0.0619916564604134</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -1796,10 +1826,13 @@
         <v>0.0548313782428948</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1858,10 +1891,13 @@
         <v>0.048636437966045</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -1920,10 +1956,13 @@
         <v>0.0751872253694235</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="V27" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1965,6 +2004,8 @@
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
@@ -1979,7 +2020,7 @@
       <c r="D29" s="8">
         <v>4.0E-5</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="25">
         <v>0.94</v>
       </c>
       <c r="F29" s="6">
@@ -1997,14 +2038,16 @@
       <c r="J29" s="20">
         <v>0.183387130498886</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
@@ -2019,7 +2062,7 @@
       <c r="D30" s="8">
         <v>5.0E-5</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="27">
         <v>0.96</v>
       </c>
       <c r="F30" s="6">
@@ -2065,8 +2108,43 @@
         <v>35</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="V30" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+    </row>
+    <row r="35">
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+    </row>
+    <row r="37">
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+    </row>
+    <row r="38">
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+    </row>
+    <row r="39">
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+    </row>
+    <row r="40">
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+    </row>
+    <row r="41">
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2081,12 +2159,18 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="U23"/>
-    <hyperlink r:id="rId2" ref="U24"/>
-    <hyperlink r:id="rId3" ref="U25"/>
-    <hyperlink r:id="rId4" ref="U26"/>
-    <hyperlink r:id="rId5" ref="U27"/>
-    <hyperlink r:id="rId6" ref="U30"/>
+    <hyperlink r:id="rId2" ref="V23"/>
+    <hyperlink r:id="rId3" ref="U24"/>
+    <hyperlink r:id="rId4" ref="V24"/>
+    <hyperlink r:id="rId5" ref="U25"/>
+    <hyperlink r:id="rId6" ref="V25"/>
+    <hyperlink r:id="rId7" ref="U26"/>
+    <hyperlink r:id="rId8" ref="V26"/>
+    <hyperlink r:id="rId9" ref="U27"/>
+    <hyperlink r:id="rId10" ref="V27"/>
+    <hyperlink r:id="rId11" ref="U30"/>
+    <hyperlink r:id="rId12" ref="V30"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>